--- a/Y_output.xlsx
+++ b/Y_output.xlsx
@@ -301,6 +301,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -326,6 +333,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -351,6 +365,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -376,6 +397,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -401,6 +429,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -426,6 +461,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -451,6 +493,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -476,6 +525,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -501,6 +557,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -526,6 +589,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -551,6 +621,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -576,6 +653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -601,6 +685,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -626,6 +717,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -651,6 +749,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -676,6 +781,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -701,6 +813,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -726,6 +845,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -751,6 +877,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -776,6 +909,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -801,6 +941,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -826,6 +973,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -851,6 +1005,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -876,6 +1037,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -901,6 +1069,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -926,6 +1101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -951,6 +1133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -976,6 +1165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14.7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>float64</t>
     </r>
     <r>
@@ -1010,7 +1206,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,20 +1393,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF001080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,7 +1860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1696,9 +1878,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2237,7 +2416,7 @@
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2303,7 +2482,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:5">
@@ -2316,7 +2495,7 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:5">
@@ -2329,7 +2508,7 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:5">
@@ -2342,7 +2521,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:5">
@@ -2355,7 +2534,7 @@
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:5">
@@ -2383,7 +2562,7 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:5">
@@ -2396,7 +2575,7 @@
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:5">
@@ -2409,7 +2588,7 @@
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:5">
@@ -2422,7 +2601,7 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:5">
@@ -2435,7 +2614,7 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:5">
@@ -2448,7 +2627,7 @@
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:5">
@@ -2461,7 +2640,7 @@
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:5">
@@ -2474,7 +2653,7 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4"/>
@@ -2489,7 +2668,7 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:5">
@@ -2502,7 +2681,7 @@
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:5">
@@ -2515,46 +2694,46 @@
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="4"/>
@@ -2563,78 +2742,78 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="4"/>
@@ -2643,75 +2822,75 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" ht="18" spans="1:4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" ht="18" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" ht="18" spans="1:4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2719,73 +2898,73 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" ht="18" spans="1:4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" ht="18" spans="1:4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" ht="18" spans="1:4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" ht="18" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" ht="18" spans="1:4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2793,73 +2972,73 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" ht="18" spans="1:4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" ht="18" spans="1:4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" ht="18" spans="1:4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" ht="18" spans="1:4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" ht="18" spans="1:4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2867,67 +3046,67 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" ht="18" spans="1:4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" ht="18" spans="1:4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" ht="18" spans="1:4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" ht="18" spans="1:4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" ht="18" spans="1:4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2941,91 +3120,91 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" ht="18" spans="1:4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" ht="18" spans="1:4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" ht="18" spans="1:4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" ht="18" spans="1:4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" ht="18" spans="1:4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" ht="18" spans="1:4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" ht="18" spans="1:4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3039,7 +3218,7 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3051,7 +3230,7 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3063,7 +3242,7 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3075,7 +3254,7 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3087,7 +3266,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3099,7 +3278,7 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3111,7 +3290,7 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3123,7 +3302,7 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3137,43 +3316,43 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" ht="18" spans="1:4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" ht="18" spans="1:4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" ht="18" spans="1:4">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3187,92 +3366,92 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" ht="18" spans="1:4">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" ht="18" spans="1:4">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" ht="18" spans="2:4">
-      <c r="B77" s="8"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="9"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" ht="18" spans="2:4">
-      <c r="B78" s="8"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="9"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" ht="18" spans="2:4">
-      <c r="B79" s="8"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="9"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" ht="18" spans="2:4">
-      <c r="B80" s="8"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="9"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" ht="18" spans="2:4">
-      <c r="B81" s="8"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="9"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" ht="18" spans="2:4">
-      <c r="B82" s="8"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="9"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" ht="18" spans="2:4">
-      <c r="B83" s="8"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="9"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" ht="18" spans="2:4">
-      <c r="B84" s="8"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="9"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" ht="18" spans="2:3">
-      <c r="B85" s="8"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" ht="18" spans="2:3">
-      <c r="B86" s="8"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="5"/>
     </row>
     <row r="87" ht="18" spans="2:3">
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="5"/>
     </row>
     <row r="88" ht="18" spans="2:3">
-      <c r="B88" s="8"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="5"/>
     </row>
   </sheetData>
@@ -3311,7 +3490,7 @@
     <col min="2" max="2" width="39.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.25" spans="1:2">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3319,7 +3498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" ht="56.25" spans="1:2">
+    <row r="2" ht="18.75" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3327,7 +3506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" ht="56.25" spans="1:2">
+    <row r="3" ht="18.75" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3335,7 +3514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" ht="56.25" spans="1:2">
+    <row r="4" ht="18.75" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3343,7 +3522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" ht="56.25" spans="1:2">
+    <row r="5" ht="18.75" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3351,7 +3530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" ht="56.25" spans="1:2">
+    <row r="6" ht="18.75" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3359,7 +3538,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" ht="56.25" spans="1:2">
+    <row r="7" ht="18.75" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3367,7 +3546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="56.25" spans="1:2">
+    <row r="8" ht="18.75" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3375,7 +3554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="37.5" spans="1:2">
+    <row r="9" ht="18.75" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3383,7 +3562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" ht="37.5" spans="1:2">
+    <row r="10" ht="18.75" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3391,7 +3570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" ht="37.5" spans="1:2">
+    <row r="11" ht="18.75" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3399,7 +3578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="37.5" spans="1:2">
+    <row r="12" ht="18.75" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3407,7 +3586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" ht="37.5" spans="1:2">
+    <row r="13" ht="18.75" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3415,7 +3594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" ht="37.5" spans="1:2">
+    <row r="14" ht="18.75" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3423,7 +3602,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" ht="37.5" spans="1:2">
+    <row r="15" ht="18.75" spans="1:2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3431,7 +3610,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" ht="37.5" spans="1:2">
+    <row r="16" ht="18.75" spans="1:2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3439,7 +3618,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" ht="37.5" spans="1:2">
+    <row r="17" ht="18.75" spans="1:2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3447,7 +3626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" ht="37.5" spans="1:2">
+    <row r="18" ht="18.75" spans="1:2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3455,7 +3634,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" ht="56.25" spans="1:2">
+    <row r="19" ht="18.75" spans="1:2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3463,7 +3642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="56.25" spans="1:2">
+    <row r="20" ht="18.75" spans="1:2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3471,7 +3650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" ht="75" spans="1:2">
+    <row r="21" ht="18.75" spans="1:2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3479,7 +3658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:2">
+    <row r="22" ht="18.75" spans="1:2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3487,7 +3666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" ht="75" spans="1:2">
+    <row r="23" ht="18.75" spans="1:2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3495,7 +3674,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="75" spans="1:2">
+    <row r="24" ht="18.75" spans="1:2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3503,7 +3682,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" ht="75" spans="1:2">
+    <row r="25" ht="18.75" spans="1:2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3511,7 +3690,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" ht="75" spans="1:2">
+    <row r="26" ht="18.75" spans="1:2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3519,7 +3698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" ht="75" spans="1:2">
+    <row r="27" ht="18.75" spans="1:2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3527,7 +3706,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" ht="75" spans="1:2">
+    <row r="28" ht="18.75" spans="1:2">
       <c r="A28">
         <v>28</v>
       </c>
